--- a/info/bill of materials.xlsx
+++ b/info/bill of materials.xlsx
@@ -5,22 +5,32 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattm\Desktop\Coding\hycsg\rocket-radio\drawings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattm\Desktop\Coding\hycsg\rocket-radio\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933BA05B-6666-4AC9-9630-F59D91A8DB37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D03447-0660-4DF4-9E8A-D6565ECA30AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="5040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16440" yWindow="4785" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bill of materials" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -55,9 +65,6 @@
     <t>https://www.adafruit.com/product/1904</t>
   </si>
   <si>
-    <t>https://www.amazon.com/433Mhz-6dbi-Antenna-Radio-rotatable/dp/B071DJLM53/</t>
-  </si>
-  <si>
     <t>Antenna (optional)</t>
   </si>
   <si>
@@ -82,13 +89,25 @@
     <t>https://www.adafruit.com/product/2195</t>
   </si>
   <si>
-    <t>10u Capacitor (optional)</t>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>10x 10u Capacitor (optional, only 2 needed)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/NOYITO-Antenna-Omnidirectional-430-470MHz-Connector/dp/B07J6GYKTZ/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,7 +433,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -529,8 +548,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -574,15 +602,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="10" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="30" borderId="5" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -610,6 +644,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="43" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -937,140 +972,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="78" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" customWidth="1"/>
+    <col min="2" max="4" width="12.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="96.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3">
+        <v>17.95</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D10" si="0">B2*C2</f>
+        <v>35.9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3">
+        <v>5.95</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>5.95</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
+      <c r="C5" s="3">
+        <v>6.95</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>13.9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
+      <c r="C6" s="3">
+        <v>5.95</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>5.95</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3">
+        <v>6.95</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>6.95</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
+      <c r="C8" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.95</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
+      <c r="C10" s="3">
+        <v>6.99</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>6.99</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11" s="5">
+        <f>SUM(D2:D10)</f>
+        <v>88.29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{02A54F92-1C1E-42BB-B26F-310D0FCF9749}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{5752F5CA-623D-4D79-A2E4-E3540F71D363}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{E2FC6238-FA2B-4FF8-87BF-872ED371C41E}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{03408FE2-A415-4D46-B399-184932E0C3B4}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{2C98DDF7-B0DC-423D-8FA8-9C8DFC81443F}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{87C244FE-8A04-473C-9217-440DC5FC94C8}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{E1676BD2-F45D-4836-9FEE-3839C98C5E83}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{E10DC99A-0812-4B9E-AA61-9B370175CB37}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{7F30F969-9F77-4363-B0FE-71FFEE4EE573}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{02A54F92-1C1E-42BB-B26F-310D0FCF9749}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{5752F5CA-623D-4D79-A2E4-E3540F71D363}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{E2FC6238-FA2B-4FF8-87BF-872ED371C41E}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{03408FE2-A415-4D46-B399-184932E0C3B4}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{2C98DDF7-B0DC-423D-8FA8-9C8DFC81443F}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{87C244FE-8A04-473C-9217-440DC5FC94C8}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{E1676BD2-F45D-4836-9FEE-3839C98C5E83}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{E10DC99A-0812-4B9E-AA61-9B370175CB37}"/>
+    <hyperlink ref="E9" r:id="rId9" xr:uid="{7F30F969-9F77-4363-B0FE-71FFEE4EE573}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId10"/>
